--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-12.xlsx
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>VENLLAMASH 75 MG 30 EXT. REL. CAPS.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -3954,17 +3957,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3972,7 +3975,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3980,17 +3983,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>27.280000000000001</v>
+        <v>34</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>11</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3998,7 +4001,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4006,17 +4009,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>63</v>
+        <v>27.280000000000001</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4032,13 +4035,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -4058,13 +4061,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4084,13 +4087,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>23.5</v>
+        <v>120</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4102,7 +4105,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4110,13 +4113,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4128,7 +4131,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4136,13 +4139,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4154,7 +4157,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4162,13 +4165,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4188,17 +4191,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4206,7 +4209,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4214,17 +4217,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4232,7 +4235,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4240,17 +4243,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4258,7 +4261,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4266,17 +4269,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4284,7 +4287,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4292,17 +4295,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4310,7 +4313,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4318,17 +4321,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4344,13 +4347,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4362,7 +4365,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4370,13 +4373,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4396,13 +4399,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4414,7 +4417,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4422,13 +4425,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4448,13 +4451,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
@@ -4466,7 +4469,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4474,13 +4477,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
@@ -4500,13 +4503,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
@@ -4526,51 +4529,77 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="K136" s="11">
-        <v>12080.549999999999</v>
-      </c>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="12">
+    <row r="136" ht="24.75" customHeight="1">
+      <c r="A136" s="6">
+        <v>133</v>
+      </c>
+      <c t="s" r="B136" s="7">
         <v>172</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c t="s" r="F137" s="13">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c t="s" r="H136" s="8">
+        <v>11</v>
+      </c>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="9">
+        <v>300</v>
+      </c>
+      <c r="M136" s="9"/>
+      <c r="N136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="26.25" customHeight="1">
+      <c r="K137" s="11">
+        <v>12106.549999999999</v>
+      </c>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="12">
         <v>173</v>
       </c>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
-      <c t="s" r="I137" s="15">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c t="s" r="F138" s="13">
         <v>174</v>
       </c>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
+      <c t="s" r="I138" s="15">
+        <v>175</v>
+      </c>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="410">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4974,10 +5003,13 @@
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
-    <mergeCell ref="K136:N136"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="I137:N137"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="K137:N137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="I138:N138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
